--- a/prisma/guest.xlsx
+++ b/prisma/guest.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karla\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81374E4-E2C5-4D7E-BC4D-CC2E317749A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1 - Table 4" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
+  <si>
+    <t>Table 4</t>
+  </si>
+  <si>
+    <t>Numero de grupo</t>
+  </si>
   <si>
     <t>Martin Pocasangre</t>
   </si>
@@ -64,9 +61,6 @@
     <t>Maria de Jesus de Bonilla</t>
   </si>
   <si>
-    <t>Eduardo Bonilla</t>
-  </si>
-  <si>
     <t>Francisco Callejas</t>
   </si>
   <si>
@@ -94,10 +88,13 @@
     <t>Maria Fernanda Portillo</t>
   </si>
   <si>
+    <t>Alberto Pacas</t>
+  </si>
+  <si>
     <t>Ana Paulina de Pacas</t>
   </si>
   <si>
-    <t>Alberto Pacas</t>
+    <t>Alberto Pacas C</t>
   </si>
   <si>
     <t>Paulina Pacas</t>
@@ -109,9 +106,6 @@
     <t>Josemaria Pacas</t>
   </si>
   <si>
-    <t>Alberto Pacas C</t>
-  </si>
-  <si>
     <t>Roberto Callejas</t>
   </si>
   <si>
@@ -121,6 +115,9 @@
     <t>Sofia Callejas</t>
   </si>
   <si>
+    <t>Roberto López</t>
+  </si>
+  <si>
     <t>Marialuisa Cornejo</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>Annette Handal</t>
   </si>
   <si>
-    <t>Axel Carriere</t>
-  </si>
-  <si>
     <t>José Manuel Perez</t>
   </si>
   <si>
@@ -256,6 +250,12 @@
     <t>Diego Zelaya</t>
   </si>
   <si>
+    <t>Jessica de Zelaya</t>
+  </si>
+  <si>
+    <t>Ricardo Zelaya</t>
+  </si>
+  <si>
     <t>Irene de Rivera</t>
   </si>
   <si>
@@ -394,12 +394,6 @@
     <t>Johanna Recinos</t>
   </si>
   <si>
-    <t>Jessica de Zelaya</t>
-  </si>
-  <si>
-    <t>Ricardo Zelaya</t>
-  </si>
-  <si>
     <t>Ana del Carmen Gamarro</t>
   </si>
   <si>
@@ -526,12 +520,6 @@
     <t>Constance de Montalvo</t>
   </si>
   <si>
-    <t>Josefina Montalvo</t>
-  </si>
-  <si>
-    <t>Mercedes de Valencia</t>
-  </si>
-  <si>
     <t>Raquel Guerra</t>
   </si>
   <si>
@@ -562,47 +550,70 @@
     <t>Rodrigo Callejas</t>
   </si>
   <si>
-    <t>Roberto hijo jacky</t>
-  </si>
-  <si>
     <t>Carlos Mata</t>
   </si>
   <si>
     <t xml:space="preserve">Carla de Mata </t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
-    <t>Grupo 1</t>
+    <t>Dina Mejia</t>
+  </si>
+  <si>
+    <t>Sonia Garcia</t>
+  </si>
+  <si>
+    <t>Safia Bouzeman</t>
+  </si>
+  <si>
+    <t>Ana Roque de Gamero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Proxima Nova"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Proxima Nova"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Proxima Nova"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Avenir Next Regular"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Proxima Nova Medium"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,7 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -627,26 +644,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="16"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -656,121 +655,181 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,85 +839,27 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="FFA6C06A"/>
-      <rgbColor rgb="FFD5D5D5"/>
-      <rgbColor rgb="FFFFD0E7"/>
-      <rgbColor rgb="FFF0B76E"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff7f7f7f"/>
+      <rgbColor rgb="fff2f4f7"/>
+      <rgbColor rgb="ffa6c06a"/>
+      <rgbColor rgb="ffffd0e7"/>
+      <rgbColor rgb="fff0b76e"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1057,7 +1058,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1075,7 +1076,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1104,7 +1105,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1129,7 +1130,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +1155,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1179,7 +1180,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1205,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1230,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1255,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1280,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,7 +1305,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,15 +1318,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1342,7 +1337,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1360,7 +1355,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,7 +1380,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,7 +1405,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,7 +1430,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1460,7 +1455,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1480,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1510,7 +1505,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1535,7 +1530,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1560,7 +1555,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1585,7 +1580,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1598,15 +1593,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1620,7 +1609,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1638,7 +1627,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1667,7 +1656,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1692,7 +1681,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1717,7 +1706,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1742,7 +1731,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1767,7 +1756,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1792,7 +1781,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1817,7 +1806,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1842,7 +1831,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1867,7 +1856,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1880,1157 +1869,1518 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B185"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B2:C186"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.28515625" style="1"/>
+    <col min="1" max="1" width="52.8984" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6562" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="22" customHeight="1">
+      <c r="B1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="20.75" customHeight="1">
+      <c r="B2" s="3"/>
+      <c r="C2" t="s" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="22.75" customHeight="1">
+      <c r="B3" t="s" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="B4" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="B5" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="B6" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="B7" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="B8" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="B9" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="B10" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="B11" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="B12" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="B13" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="B14" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="B15" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="B16" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="B17" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="B18" t="s" s="7">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="B19" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="B20" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="B21" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="B22" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="B23" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="C23" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="B24" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
+      <c r="B25" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="22.5" customHeight="1">
+      <c r="B26" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="22.5" customHeight="1">
+      <c r="B27" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C27" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="22.5" customHeight="1">
+      <c r="B28" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="22.5" customHeight="1">
+      <c r="B29" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="C29" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="22.5" customHeight="1">
+      <c r="B30" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" ht="22.5" customHeight="1">
+      <c r="B31" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C31" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="1">
+      <c r="B32" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
+      <c r="B33" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="C33" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="1">
+      <c r="B34" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="22.5" customHeight="1">
+      <c r="B35" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C35" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="22.5" customHeight="1">
+      <c r="B36" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" ht="22.5" customHeight="1">
+      <c r="B37" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C37" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" ht="22.5" customHeight="1">
+      <c r="B38" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="C38" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="22.5" customHeight="1">
+      <c r="B39" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C39" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="22.5" customHeight="1">
+      <c r="B40" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" ht="22.5" customHeight="1">
+      <c r="B41" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="22.5" customHeight="1">
+      <c r="B42" t="s" s="12">
+        <v>41</v>
+      </c>
+      <c r="C42" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" ht="22.5" customHeight="1">
+      <c r="B43" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="22.5" customHeight="1">
+      <c r="B44" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="C44" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" ht="22.5" customHeight="1">
+      <c r="B45" t="s" s="12">
+        <v>44</v>
+      </c>
+      <c r="C45" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" ht="22.5" customHeight="1">
+      <c r="B46" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="C46" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" ht="22.5" customHeight="1">
+      <c r="B47" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="C47" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" ht="22.5" customHeight="1">
+      <c r="B48" t="s" s="12">
+        <v>47</v>
+      </c>
+      <c r="C48" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" ht="22.5" customHeight="1">
+      <c r="B49" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C49" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" ht="22.5" customHeight="1">
+      <c r="B50" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="C50" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" ht="22.5" customHeight="1">
+      <c r="B51" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="C51" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" ht="22.5" customHeight="1">
+      <c r="B52" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="C52" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" ht="22.5" customHeight="1">
+      <c r="B53" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="C53" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" ht="22.5" customHeight="1">
+      <c r="B54" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="C54" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" ht="22.5" customHeight="1">
+      <c r="B55" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C55" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" ht="22.5" customHeight="1">
+      <c r="B56" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="C56" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" ht="22.5" customHeight="1">
+      <c r="B57" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="C57" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" ht="22.5" customHeight="1">
+      <c r="B58" t="s" s="7">
+        <v>57</v>
+      </c>
+      <c r="C58" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" ht="22.5" customHeight="1">
+      <c r="B59" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="C59" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" ht="22.5" customHeight="1">
+      <c r="B60" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="C60" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" ht="22.5" customHeight="1">
+      <c r="B61" t="s" s="7">
+        <v>60</v>
+      </c>
+      <c r="C61" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" ht="22.5" customHeight="1">
+      <c r="B62" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="C62" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" ht="22.5" customHeight="1">
+      <c r="B63" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="C63" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" ht="22.5" customHeight="1">
+      <c r="B64" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="C64" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" ht="22.5" customHeight="1">
+      <c r="B65" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="C65" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" ht="22.5" customHeight="1">
+      <c r="B66" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="C66" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" ht="22.5" customHeight="1">
+      <c r="B67" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="C67" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" ht="22.5" customHeight="1">
+      <c r="B68" t="s" s="7">
+        <v>67</v>
+      </c>
+      <c r="C68" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" ht="22.5" customHeight="1">
+      <c r="B69" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="C69" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" ht="22.5" customHeight="1">
+      <c r="B70" t="s" s="7">
+        <v>69</v>
+      </c>
+      <c r="C70" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" ht="22.5" customHeight="1">
+      <c r="B71" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="C71" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" ht="22.5" customHeight="1">
+      <c r="B72" t="s" s="7">
+        <v>71</v>
+      </c>
+      <c r="C72" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" ht="22.5" customHeight="1">
+      <c r="B73" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="C73" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" ht="22.5" customHeight="1">
+      <c r="B74" t="s" s="7">
+        <v>73</v>
+      </c>
+      <c r="C74" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" ht="22.5" customHeight="1">
+      <c r="B75" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="C75" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" ht="22.5" customHeight="1">
+      <c r="B76" t="s" s="7">
+        <v>75</v>
+      </c>
+      <c r="C76" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" ht="22.5" customHeight="1">
+      <c r="B77" t="s" s="7">
+        <v>76</v>
+      </c>
+      <c r="C77" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" ht="22.5" customHeight="1">
+      <c r="B78" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="C78" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" ht="22.5" customHeight="1">
+      <c r="B79" t="s" s="7">
+        <v>78</v>
+      </c>
+      <c r="C79" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" ht="22.5" customHeight="1">
+      <c r="B80" t="s" s="7">
+        <v>79</v>
+      </c>
+      <c r="C80" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" ht="22.5" customHeight="1">
+      <c r="B81" t="s" s="7">
+        <v>80</v>
+      </c>
+      <c r="C81" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" ht="22.5" customHeight="1">
+      <c r="B82" t="s" s="7">
+        <v>81</v>
+      </c>
+      <c r="C82" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" ht="22.5" customHeight="1">
+      <c r="B83" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="C83" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" ht="22.5" customHeight="1">
+      <c r="B84" t="s" s="7">
+        <v>83</v>
+      </c>
+      <c r="C84" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" ht="22.5" customHeight="1">
+      <c r="B85" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="C85" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" ht="22.5" customHeight="1">
+      <c r="B86" t="s" s="7">
+        <v>85</v>
+      </c>
+      <c r="C86" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" ht="22.5" customHeight="1">
+      <c r="B87" t="s" s="7">
+        <v>86</v>
+      </c>
+      <c r="C87" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" ht="22.5" customHeight="1">
+      <c r="B88" t="s" s="7">
+        <v>87</v>
+      </c>
+      <c r="C88" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" ht="22.5" customHeight="1">
+      <c r="B89" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="C89" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" ht="22.5" customHeight="1">
+      <c r="B90" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="C90" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" ht="22.5" customHeight="1">
+      <c r="B91" t="s" s="7">
+        <v>90</v>
+      </c>
+      <c r="C91" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" ht="22.5" customHeight="1">
+      <c r="B92" t="s" s="7">
+        <v>91</v>
+      </c>
+      <c r="C92" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" ht="22.5" customHeight="1">
+      <c r="B93" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="C93" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" ht="22.5" customHeight="1">
+      <c r="B94" t="s" s="7">
+        <v>93</v>
+      </c>
+      <c r="C94" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" ht="22.5" customHeight="1">
+      <c r="B95" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="C95" s="9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" ht="22.5" customHeight="1">
+      <c r="B96" t="s" s="7">
+        <v>95</v>
+      </c>
+      <c r="C96" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" ht="22.5" customHeight="1">
+      <c r="B97" t="s" s="7">
+        <v>96</v>
+      </c>
+      <c r="C97" s="9">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" ht="22.5" customHeight="1">
+      <c r="B98" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="C98" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" ht="22.5" customHeight="1">
+      <c r="B99" t="s" s="7">
+        <v>98</v>
+      </c>
+      <c r="C99" s="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" ht="22.5" customHeight="1">
+      <c r="B100" t="s" s="7">
+        <v>99</v>
+      </c>
+      <c r="C100" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" ht="22.5" customHeight="1">
+      <c r="B101" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="C101" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" ht="22.5" customHeight="1">
+      <c r="B102" t="s" s="7">
+        <v>101</v>
+      </c>
+      <c r="C102" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" ht="22.5" customHeight="1">
+      <c r="B103" t="s" s="7">
+        <v>102</v>
+      </c>
+      <c r="C103" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" ht="22.5" customHeight="1">
+      <c r="B104" t="s" s="7">
+        <v>103</v>
+      </c>
+      <c r="C104" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" ht="22.5" customHeight="1">
+      <c r="B105" t="s" s="7">
+        <v>104</v>
+      </c>
+      <c r="C105" s="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" ht="22.5" customHeight="1">
+      <c r="B106" t="s" s="7">
+        <v>105</v>
+      </c>
+      <c r="C106" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" ht="22.5" customHeight="1">
+      <c r="B107" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="C107" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" ht="22.5" customHeight="1">
+      <c r="B108" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="C108" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" ht="22.5" customHeight="1">
+      <c r="B109" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="C109" s="9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" ht="22.5" customHeight="1">
+      <c r="B110" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="C110" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" ht="22.5" customHeight="1">
+      <c r="B111" t="s" s="7">
+        <v>110</v>
+      </c>
+      <c r="C111" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" ht="22.5" customHeight="1">
+      <c r="B112" t="s" s="7">
+        <v>111</v>
+      </c>
+      <c r="C112" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" ht="22.5" customHeight="1">
+      <c r="B113" t="s" s="7">
+        <v>112</v>
+      </c>
+      <c r="C113" s="9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" ht="22.5" customHeight="1">
+      <c r="B114" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="C114" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" ht="22.5" customHeight="1">
+      <c r="B115" t="s" s="7">
+        <v>114</v>
+      </c>
+      <c r="C115" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" ht="22.5" customHeight="1">
+      <c r="B116" t="s" s="7">
+        <v>115</v>
+      </c>
+      <c r="C116" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" ht="22.5" customHeight="1">
+      <c r="B117" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="C117" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" ht="22.5" customHeight="1">
+      <c r="B118" t="s" s="7">
+        <v>117</v>
+      </c>
+      <c r="C118" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" ht="22.5" customHeight="1">
+      <c r="B119" t="s" s="7">
+        <v>118</v>
+      </c>
+      <c r="C119" s="9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" ht="22.5" customHeight="1">
+      <c r="B120" t="s" s="7">
+        <v>119</v>
+      </c>
+      <c r="C120" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" ht="22.5" customHeight="1">
+      <c r="B121" t="s" s="7">
+        <v>120</v>
+      </c>
+      <c r="C121" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" ht="22.5" customHeight="1">
+      <c r="B122" t="s" s="7">
+        <v>121</v>
+      </c>
+      <c r="C122" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" ht="22.5" customHeight="1">
+      <c r="B123" t="s" s="7">
+        <v>122</v>
+      </c>
+      <c r="C123" s="9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" ht="22.5" customHeight="1">
+      <c r="B124" t="s" s="7">
+        <v>123</v>
+      </c>
+      <c r="C124" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" ht="22.5" customHeight="1">
+      <c r="B125" t="s" s="7">
+        <v>124</v>
+      </c>
+      <c r="C125" s="9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" ht="22.5" customHeight="1">
+      <c r="B126" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="C126" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" ht="22.5" customHeight="1">
+      <c r="B127" t="s" s="7">
+        <v>126</v>
+      </c>
+      <c r="C127" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" ht="22.5" customHeight="1">
+      <c r="B128" t="s" s="7">
+        <v>127</v>
+      </c>
+      <c r="C128" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" ht="22.5" customHeight="1">
+      <c r="B129" t="s" s="7">
+        <v>128</v>
+      </c>
+      <c r="C129" s="9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" ht="22.5" customHeight="1">
+      <c r="B130" t="s" s="7">
+        <v>129</v>
+      </c>
+      <c r="C130" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" ht="22.5" customHeight="1">
+      <c r="B131" t="s" s="7">
+        <v>130</v>
+      </c>
+      <c r="C131" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" ht="22.5" customHeight="1">
+      <c r="B132" t="s" s="7">
+        <v>131</v>
+      </c>
+      <c r="C132" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" ht="22.5" customHeight="1">
+      <c r="B133" t="s" s="7">
+        <v>132</v>
+      </c>
+      <c r="C133" s="9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" ht="22.5" customHeight="1">
+      <c r="B134" t="s" s="7">
+        <v>133</v>
+      </c>
+      <c r="C134" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" ht="22.5" customHeight="1">
+      <c r="B135" t="s" s="7">
+        <v>134</v>
+      </c>
+      <c r="C135" s="9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="136" ht="22.5" customHeight="1">
+      <c r="B136" t="s" s="7">
+        <v>135</v>
+      </c>
+      <c r="C136" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" ht="22.5" customHeight="1">
+      <c r="B137" t="s" s="7">
+        <v>136</v>
+      </c>
+      <c r="C137" s="9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" ht="36.5" customHeight="1">
+      <c r="B138" t="s" s="7">
+        <v>137</v>
+      </c>
+      <c r="C138" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" ht="22.5" customHeight="1">
+      <c r="B139" t="s" s="7">
+        <v>138</v>
+      </c>
+      <c r="C139" s="9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" ht="22.5" customHeight="1">
+      <c r="B140" t="s" s="7">
+        <v>139</v>
+      </c>
+      <c r="C140" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" ht="22.5" customHeight="1">
+      <c r="B141" t="s" s="7">
+        <v>140</v>
+      </c>
+      <c r="C141" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" ht="22.5" customHeight="1">
+      <c r="B142" t="s" s="7">
+        <v>141</v>
+      </c>
+      <c r="C142" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" ht="22.5" customHeight="1">
+      <c r="B143" t="s" s="7">
+        <v>142</v>
+      </c>
+      <c r="C143" s="9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" ht="22.5" customHeight="1">
+      <c r="B144" t="s" s="7">
+        <v>143</v>
+      </c>
+      <c r="C144" s="8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" ht="22.5" customHeight="1">
+      <c r="B145" t="s" s="7">
+        <v>144</v>
+      </c>
+      <c r="C145" s="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146" ht="22.5" customHeight="1">
+      <c r="B146" t="s" s="7">
+        <v>145</v>
+      </c>
+      <c r="C146" s="8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147" ht="22.5" customHeight="1">
+      <c r="B147" t="s" s="7">
+        <v>146</v>
+      </c>
+      <c r="C147" s="9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" ht="22.5" customHeight="1">
+      <c r="B148" t="s" s="7">
+        <v>147</v>
+      </c>
+      <c r="C148" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149" ht="22.5" customHeight="1">
+      <c r="B149" t="s" s="7">
+        <v>148</v>
+      </c>
+      <c r="C149" s="9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="150" ht="22.5" customHeight="1">
+      <c r="B150" t="s" s="7">
+        <v>149</v>
+      </c>
+      <c r="C150" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" ht="22.5" customHeight="1">
+      <c r="B151" t="s" s="7">
+        <v>150</v>
+      </c>
+      <c r="C151" s="9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" ht="22.5" customHeight="1">
+      <c r="B152" t="s" s="7">
+        <v>151</v>
+      </c>
+      <c r="C152" s="8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" ht="22.5" customHeight="1">
+      <c r="B153" t="s" s="7">
+        <v>152</v>
+      </c>
+      <c r="C153" s="9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" ht="22.5" customHeight="1">
+      <c r="B154" t="s" s="7">
+        <v>153</v>
+      </c>
+      <c r="C154" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="155" ht="22.5" customHeight="1">
+      <c r="B155" t="s" s="7">
+        <v>154</v>
+      </c>
+      <c r="C155" s="9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" ht="22.5" customHeight="1">
+      <c r="B156" t="s" s="7">
+        <v>155</v>
+      </c>
+      <c r="C156" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="157" ht="22.5" customHeight="1">
+      <c r="B157" t="s" s="7">
+        <v>156</v>
+      </c>
+      <c r="C157" s="9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" ht="22.5" customHeight="1">
+      <c r="B158" t="s" s="7">
+        <v>157</v>
+      </c>
+      <c r="C158" s="8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159" ht="22.5" customHeight="1">
+      <c r="B159" t="s" s="7">
+        <v>158</v>
+      </c>
+      <c r="C159" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" ht="22.5" customHeight="1">
+      <c r="B160" t="s" s="7">
+        <v>159</v>
+      </c>
+      <c r="C160" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="161" ht="22.5" customHeight="1">
+      <c r="B161" t="s" s="7">
+        <v>160</v>
+      </c>
+      <c r="C161" s="9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" ht="22.5" customHeight="1">
+      <c r="B162" t="s" s="7">
+        <v>161</v>
+      </c>
+      <c r="C162" s="8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" ht="22.5" customHeight="1">
+      <c r="B163" t="s" s="7">
+        <v>162</v>
+      </c>
+      <c r="C163" s="9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="164" ht="22.5" customHeight="1">
+      <c r="B164" t="s" s="7">
+        <v>163</v>
+      </c>
+      <c r="C164" s="8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" ht="22.5" customHeight="1">
+      <c r="B165" t="s" s="7">
+        <v>164</v>
+      </c>
+      <c r="C165" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="166" ht="22.5" customHeight="1">
+      <c r="B166" t="s" s="7">
+        <v>165</v>
+      </c>
+      <c r="C166" s="8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" ht="22.5" customHeight="1">
+      <c r="B167" t="s" s="7">
+        <v>166</v>
+      </c>
+      <c r="C167" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" ht="22.5" customHeight="1">
+      <c r="B168" t="s" s="7">
+        <v>167</v>
+      </c>
+      <c r="C168" s="8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" ht="22.5" customHeight="1">
+      <c r="B169" t="s" s="7">
+        <v>168</v>
+      </c>
+      <c r="C169" s="9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="170" ht="22.5" customHeight="1">
+      <c r="B170" t="s" s="7">
+        <v>169</v>
+      </c>
+      <c r="C170" s="8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="171" ht="22.5" customHeight="1">
+      <c r="B171" t="s" s="7">
+        <v>170</v>
+      </c>
+      <c r="C171" s="9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="172" ht="22.5" customHeight="1">
+      <c r="B172" t="s" s="7">
+        <v>171</v>
+      </c>
+      <c r="C172" s="8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="173" ht="22.5" customHeight="1">
+      <c r="B173" t="s" s="7">
+        <v>172</v>
+      </c>
+      <c r="C173" s="9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="174" ht="22.5" customHeight="1">
+      <c r="B174" t="s" s="7">
+        <v>173</v>
+      </c>
+      <c r="C174" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="175" ht="22.5" customHeight="1">
+      <c r="B175" t="s" s="7">
+        <v>174</v>
+      </c>
+      <c r="C175" s="9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="176" ht="22.5" customHeight="1">
+      <c r="B176" t="s" s="7">
+        <v>175</v>
+      </c>
+      <c r="C176" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="177" ht="22.5" customHeight="1">
+      <c r="B177" t="s" s="7">
+        <v>176</v>
+      </c>
+      <c r="C177" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="178" ht="22.5" customHeight="1">
+      <c r="B178" t="s" s="7">
+        <v>177</v>
+      </c>
+      <c r="C178" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" ht="22.5" customHeight="1">
+      <c r="B179" t="s" s="7">
+        <v>178</v>
+      </c>
+      <c r="C179" s="9">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="180" ht="22.5" customHeight="1">
+      <c r="B180" t="s" s="7">
+        <v>179</v>
+      </c>
+      <c r="C180" s="8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="181" ht="22.5" customHeight="1">
+      <c r="B181" t="s" s="7">
+        <v>180</v>
+      </c>
+      <c r="C181" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="182" ht="22.5" customHeight="1">
+      <c r="B182" t="s" s="7">
+        <v>181</v>
+      </c>
+      <c r="C182" s="8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" ht="22.5" customHeight="1">
+      <c r="B183" t="s" s="7">
+        <v>182</v>
+      </c>
+      <c r="C183" s="9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="184" ht="22.5" customHeight="1">
+      <c r="B184" t="s" s="7">
         <v>183</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C184" s="8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="185" ht="22.75" customHeight="1">
+      <c r="B185" t="s" s="13">
         <v>184</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A41" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A43" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A44" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A45" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A46" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A47" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A52" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A54" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A55" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A56" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A57" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A58" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A59" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A60" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A61" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A62" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A64" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A65" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A66" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A67" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A68" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A69" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A70" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A71" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A72" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A73" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A74" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A75" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A76" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A77" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A78" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A79" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A80" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A81" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A82" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A84" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A85" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A86" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A87" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A88" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A89" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A90" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="6"/>
-    </row>
-    <row r="91" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A91" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" s="6"/>
-    </row>
-    <row r="92" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A92" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" s="6"/>
-    </row>
-    <row r="93" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A93" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="6"/>
-    </row>
-    <row r="94" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A94" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="6"/>
-    </row>
-    <row r="95" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A95" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="6"/>
-    </row>
-    <row r="96" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A96" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="6"/>
-    </row>
-    <row r="97" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A97" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="6"/>
-    </row>
-    <row r="98" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A98" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A99" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A100" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A101" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="6"/>
-    </row>
-    <row r="102" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A102" s="5" t="s">
+      <c r="C185" s="14">
         <v>100</v>
       </c>
-      <c r="B102" s="6"/>
-    </row>
-    <row r="103" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A103" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="6"/>
-    </row>
-    <row r="104" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A104" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="6"/>
-    </row>
-    <row r="105" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A105" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="6"/>
-    </row>
-    <row r="106" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A106" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="6"/>
-    </row>
-    <row r="107" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A107" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="6"/>
-    </row>
-    <row r="108" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A108" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A109" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A110" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A111" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A112" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112" s="6"/>
-    </row>
-    <row r="113" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A113" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A114" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A115" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" s="6"/>
-    </row>
-    <row r="116" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A116" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" s="6"/>
-    </row>
-    <row r="117" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A117" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117" s="6"/>
-    </row>
-    <row r="118" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A118" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" s="6"/>
-    </row>
-    <row r="119" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A119" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" s="6"/>
-    </row>
-    <row r="120" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A120" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" s="6"/>
-    </row>
-    <row r="121" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A121" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" s="6"/>
-    </row>
-    <row r="122" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A122" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" s="6"/>
-    </row>
-    <row r="123" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A123" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123" s="6"/>
-    </row>
-    <row r="124" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A124" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A125" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" s="6"/>
-    </row>
-    <row r="126" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A126" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A127" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A128" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A129" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A130" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A131" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A132" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A133" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133" s="6"/>
-    </row>
-    <row r="134" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A134" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134" s="6"/>
-    </row>
-    <row r="135" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A135" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B135" s="6"/>
-    </row>
-    <row r="136" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A136" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B136" s="6"/>
-    </row>
-    <row r="137" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A137" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B137" s="6"/>
-    </row>
-    <row r="138" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A138" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138" s="6"/>
-    </row>
-    <row r="139" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A139" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B139" s="6"/>
-    </row>
-    <row r="140" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A140" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B140" s="6"/>
-    </row>
-    <row r="141" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A141" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" s="6"/>
-    </row>
-    <row r="142" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A142" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A143" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B143" s="6"/>
-    </row>
-    <row r="144" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A144" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B144" s="6"/>
-    </row>
-    <row r="145" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A145" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" s="6"/>
-    </row>
-    <row r="146" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A146" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A147" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B147" s="6"/>
-    </row>
-    <row r="148" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A148" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B148" s="6"/>
-    </row>
-    <row r="149" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A149" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149" s="6"/>
-    </row>
-    <row r="150" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A150" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150" s="6"/>
-    </row>
-    <row r="151" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A151" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151" s="6"/>
-    </row>
-    <row r="152" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A152" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B152" s="6"/>
-    </row>
-    <row r="153" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A153" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B153" s="6"/>
-    </row>
-    <row r="154" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A154" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154" s="6"/>
-    </row>
-    <row r="155" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A155" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B155" s="6"/>
-    </row>
-    <row r="156" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A156" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B156" s="6"/>
-    </row>
-    <row r="157" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A157" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B157" s="6"/>
-    </row>
-    <row r="158" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A158" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B158" s="6"/>
-    </row>
-    <row r="159" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A159" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B159" s="6"/>
-    </row>
-    <row r="160" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A160" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B160" s="6"/>
-    </row>
-    <row r="161" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A161" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B161" s="6"/>
-    </row>
-    <row r="162" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A162" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B162" s="6"/>
-    </row>
-    <row r="163" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A163" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B163" s="6"/>
-    </row>
-    <row r="164" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A164" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B164" s="6"/>
-    </row>
-    <row r="165" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A165" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B165" s="6"/>
-    </row>
-    <row r="166" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A166" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B166" s="6"/>
-    </row>
-    <row r="167" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A167" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B167" s="6"/>
-    </row>
-    <row r="168" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A168" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B168" s="6"/>
-    </row>
-    <row r="169" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A169" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B169" s="6"/>
-    </row>
-    <row r="170" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A170" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B170" s="6"/>
-    </row>
-    <row r="171" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A171" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B171" s="6"/>
-    </row>
-    <row r="172" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A172" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B172" s="6"/>
-    </row>
-    <row r="173" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A173" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B173" s="6"/>
-    </row>
-    <row r="174" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A174" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B174" s="6"/>
-    </row>
-    <row r="175" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A175" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B175" s="6"/>
-    </row>
-    <row r="176" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A176" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B176" s="6"/>
-    </row>
-    <row r="177" spans="1:2" ht="36.4" customHeight="1">
-      <c r="A177" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B177" s="6"/>
-    </row>
-    <row r="178" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A178" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B178" s="6"/>
-    </row>
-    <row r="179" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A179" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B179" s="6"/>
-    </row>
-    <row r="180" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A180" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180" s="6"/>
-    </row>
-    <row r="181" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A181" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181" s="6"/>
-    </row>
-    <row r="182" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A182" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B182" s="6"/>
-    </row>
-    <row r="183" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A183" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B183" s="6"/>
-    </row>
-    <row r="184" spans="1:2" ht="22.35" customHeight="1">
-      <c r="A184" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B184" s="6"/>
-    </row>
-    <row r="185" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A185" s="11"/>
-      <c r="B185" s="6"/>
+    </row>
+    <row r="186" ht="20.75" customHeight="1">
+      <c r="B186" s="15"/>
+      <c r="C186" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/prisma/guest.xlsx
+++ b/prisma/guest.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karla\Documents\GitHub\wedding_backend\prisma\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C43D91A-34C2-465F-A5EA-22A134A5EFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Table 4" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Table 4" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>Table 4</t>
   </si>
   <si>
-    <t>Numero de grupo</t>
-  </si>
-  <si>
     <t>Martin Pocasangre</t>
   </si>
   <si>
@@ -566,23 +572,21 @@
   </si>
   <si>
     <t>Ana Roque de Gamero</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Grupo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -597,7 +601,7 @@
       <name val="Proxima Nova"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Proxima Nova"/>
@@ -775,61 +779,61 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,27 +843,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff7f7f7f"/>
-      <rgbColor rgb="fff2f4f7"/>
-      <rgbColor rgb="ffa6c06a"/>
-      <rgbColor rgb="ffffd0e7"/>
-      <rgbColor rgb="fff0b76e"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FFF2F4F7"/>
+      <rgbColor rgb="FFA6C06A"/>
+      <rgbColor rgb="FFFFD0E7"/>
+      <rgbColor rgb="FFF0B76E"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1058,7 +1120,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1076,7 +1138,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1167,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1130,7 +1192,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1155,7 +1217,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +1242,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1205,7 +1267,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1292,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +1317,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,7 +1342,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +1367,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,9 +1380,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1337,7 +1405,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1355,7 +1423,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1380,7 +1448,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1405,7 +1473,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,7 +1498,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1455,7 +1523,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1480,7 +1548,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1505,7 +1573,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1530,7 +1598,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1555,7 +1623,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1580,7 +1648,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1593,9 +1661,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1609,7 +1683,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1627,7 +1701,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1656,7 +1730,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1681,7 +1755,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1706,7 +1780,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1731,7 +1805,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1756,7 +1830,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1781,7 +1855,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1806,7 +1880,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1831,7 +1905,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1856,7 +1930,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1869,1518 +1943,1530 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:C186"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:C186"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.8984" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6562" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="52.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1">
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="2:3" ht="22.05" customHeight="1">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" ht="20.75" customHeight="1">
-      <c r="B2" s="3"/>
-      <c r="C2" t="s" s="4">
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="2:3" ht="20.7" customHeight="1">
+      <c r="B2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="22.8" customHeight="1">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="22.75" customHeight="1">
-      <c r="B3" t="s" s="5">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="B4" t="s" s="7">
+    <row r="5" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="B5" t="s" s="7">
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="22.5" customHeight="1">
-      <c r="B6" t="s" s="7">
+    <row r="7" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="B7" t="s" s="7">
+    <row r="8" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
-      <c r="B8" t="s" s="7">
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C9" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="B9" t="s" s="7">
+    <row r="10" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="B10" t="s" s="7">
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1">
-      <c r="B11" t="s" s="7">
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="22.5" customHeight="1">
-      <c r="B12" t="s" s="7">
+    <row r="13" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1">
-      <c r="B13" t="s" s="7">
+      <c r="C13" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="22.5" customHeight="1">
-      <c r="B14" t="s" s="7">
+    <row r="15" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C15" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="22.5" customHeight="1">
-      <c r="B15" t="s" s="10">
+    <row r="16" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1">
-      <c r="B16" t="s" s="7">
+      <c r="C16" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1">
-      <c r="B17" t="s" s="7">
+      <c r="C17" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
-      <c r="B18" t="s" s="7">
+      <c r="C18" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1">
-      <c r="B19" t="s" s="7">
+      <c r="C19" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C20" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="22.5" customHeight="1">
-      <c r="B20" t="s" s="7">
+    <row r="21" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" ht="22.5" customHeight="1">
-      <c r="B21" t="s" s="7">
+      <c r="C21" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C22" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="22.5" customHeight="1">
-      <c r="B22" t="s" s="7">
+    <row r="23" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" ht="22.5" customHeight="1">
-      <c r="B23" t="s" s="11">
+      <c r="C23" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C24" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="22.5" customHeight="1">
-      <c r="B24" t="s" s="7">
+    <row r="25" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" ht="22.5" customHeight="1">
-      <c r="B25" t="s" s="11">
+      <c r="C25" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" ht="22.5" customHeight="1">
-      <c r="B26" t="s" s="7">
+      <c r="C26" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C27" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="27" ht="22.5" customHeight="1">
-      <c r="B27" t="s" s="7">
+    <row r="28" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C28" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="28" ht="22.5" customHeight="1">
-      <c r="B28" t="s" s="7">
+    <row r="29" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" ht="22.5" customHeight="1">
-      <c r="B29" t="s" s="11">
+      <c r="C29" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="30" ht="22.5" customHeight="1">
-      <c r="B30" t="s" s="7">
+    <row r="31" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C31" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="31" ht="22.5" customHeight="1">
-      <c r="B31" t="s" s="7">
+    <row r="32" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" ht="22.5" customHeight="1">
-      <c r="B32" t="s" s="7">
+      <c r="C32" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C33" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="33" ht="22.5" customHeight="1">
-      <c r="B33" t="s" s="7">
+    <row r="34" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C34" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="34" ht="22.5" customHeight="1">
-      <c r="B34" t="s" s="7">
+    <row r="35" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C35" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="35" ht="22.5" customHeight="1">
-      <c r="B35" t="s" s="7">
+    <row r="36" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" ht="22.5" customHeight="1">
-      <c r="B36" t="s" s="10">
+      <c r="C36" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C37" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="37" ht="22.5" customHeight="1">
-      <c r="B37" t="s" s="7">
+    <row r="38" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" ht="22.5" customHeight="1">
-      <c r="B38" t="s" s="10">
+      <c r="C38" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C39" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="39" ht="22.5" customHeight="1">
-      <c r="B39" t="s" s="7">
+    <row r="40" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" ht="22.5" customHeight="1">
-      <c r="B40" t="s" s="7">
+      <c r="C40" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" ht="22.5" customHeight="1">
-      <c r="B41" t="s" s="7">
+      <c r="C41" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B42" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C42" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="42" ht="22.5" customHeight="1">
-      <c r="B42" t="s" s="12">
+    <row r="43" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B43" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" ht="22.5" customHeight="1">
-      <c r="B43" t="s" s="12">
+      <c r="C43" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B44" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" ht="22.5" customHeight="1">
-      <c r="B44" t="s" s="12">
+      <c r="C44" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B45" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" ht="22.5" customHeight="1">
-      <c r="B45" t="s" s="12">
+      <c r="C45" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C46" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="46" ht="22.5" customHeight="1">
-      <c r="B46" t="s" s="7">
+    <row r="47" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B47" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" ht="22.5" customHeight="1">
-      <c r="B47" t="s" s="12">
+      <c r="C47" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B48" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" ht="22.5" customHeight="1">
-      <c r="B48" t="s" s="12">
+      <c r="C48" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B49" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C49" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="49" ht="22.5" customHeight="1">
-      <c r="B49" t="s" s="7">
+    <row r="50" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B50" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" ht="22.5" customHeight="1">
-      <c r="B50" t="s" s="11">
+      <c r="C50" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C51" s="8">
         <v>26</v>
       </c>
     </row>
-    <row r="51" ht="22.5" customHeight="1">
-      <c r="B51" t="s" s="7">
+    <row r="52" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B52" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" ht="22.5" customHeight="1">
-      <c r="B52" t="s" s="11">
+      <c r="C52" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B53" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C53" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="53" ht="22.5" customHeight="1">
-      <c r="B53" t="s" s="7">
+    <row r="54" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B54" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" ht="22.5" customHeight="1">
-      <c r="B54" t="s" s="11">
+      <c r="C54" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B55" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C55" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="55" ht="22.5" customHeight="1">
-      <c r="B55" t="s" s="7">
+    <row r="56" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" ht="22.5" customHeight="1">
-      <c r="B56" t="s" s="7">
+      <c r="C56" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C57" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="57" ht="22.5" customHeight="1">
-      <c r="B57" t="s" s="7">
+    <row r="58" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" ht="22.5" customHeight="1">
-      <c r="B58" t="s" s="7">
+      <c r="C58" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B59" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C59" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="59" ht="22.5" customHeight="1">
-      <c r="B59" t="s" s="7">
+    <row r="60" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" ht="22.5" customHeight="1">
-      <c r="B60" t="s" s="7">
+      <c r="C60" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B61" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" ht="22.5" customHeight="1">
-      <c r="B61" t="s" s="7">
+      <c r="C61" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B62" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C62" s="7">
         <v>32</v>
       </c>
     </row>
-    <row r="62" ht="22.5" customHeight="1">
-      <c r="B62" t="s" s="7">
+    <row r="63" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B63" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" ht="22.5" customHeight="1">
-      <c r="B63" t="s" s="7">
+      <c r="C63" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" ht="22.5" customHeight="1">
-      <c r="B64" t="s" s="7">
+      <c r="C64" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B65" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C65" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="65" ht="22.5" customHeight="1">
-      <c r="B65" t="s" s="7">
+    <row r="66" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B66" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" ht="22.5" customHeight="1">
-      <c r="B66" t="s" s="7">
+      <c r="C66" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B67" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" ht="22.5" customHeight="1">
-      <c r="B67" t="s" s="7">
+      <c r="C67" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B68" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C68" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="68" ht="22.5" customHeight="1">
-      <c r="B68" t="s" s="7">
+    <row r="69" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B69" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" ht="22.5" customHeight="1">
-      <c r="B69" t="s" s="7">
+      <c r="C69" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B70" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" ht="22.5" customHeight="1">
-      <c r="B70" t="s" s="7">
+      <c r="C70" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B71" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C71" s="8">
         <v>38</v>
       </c>
     </row>
-    <row r="71" ht="22.5" customHeight="1">
-      <c r="B71" t="s" s="7">
+    <row r="72" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B72" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" ht="22.5" customHeight="1">
-      <c r="B72" t="s" s="7">
+      <c r="C72" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B73" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="8">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" ht="22.5" customHeight="1">
-      <c r="B73" t="s" s="7">
+      <c r="C73" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B74" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C74" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="74" ht="22.5" customHeight="1">
-      <c r="B74" t="s" s="7">
+    <row r="75" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B75" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" ht="22.5" customHeight="1">
-      <c r="B75" t="s" s="7">
+      <c r="C75" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B76" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C76" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="76" ht="22.5" customHeight="1">
-      <c r="B76" t="s" s="7">
+    <row r="77" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B77" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="8">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" ht="22.5" customHeight="1">
-      <c r="B77" t="s" s="7">
+      <c r="C77" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B78" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" ht="22.5" customHeight="1">
-      <c r="B78" t="s" s="7">
+      <c r="C78" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B79" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" ht="22.5" customHeight="1">
-      <c r="B79" t="s" s="7">
+      <c r="C79" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B80" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C80" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="80" ht="22.5" customHeight="1">
-      <c r="B80" t="s" s="7">
+    <row r="81" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B81" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C81" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="81" ht="22.5" customHeight="1">
-      <c r="B81" t="s" s="7">
+    <row r="82" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B82" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" ht="22.5" customHeight="1">
-      <c r="B82" t="s" s="7">
+      <c r="C82" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B83" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C83" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="83" ht="22.5" customHeight="1">
-      <c r="B83" t="s" s="7">
+    <row r="84" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B84" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C84" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="84" ht="22.5" customHeight="1">
-      <c r="B84" t="s" s="7">
+    <row r="85" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B85" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="85" ht="22.5" customHeight="1">
-      <c r="B85" t="s" s="7">
+      <c r="C85" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B86" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" ht="22.5" customHeight="1">
-      <c r="B86" t="s" s="7">
+      <c r="C86" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B87" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C87" s="8">
         <v>47</v>
       </c>
     </row>
-    <row r="87" ht="22.5" customHeight="1">
-      <c r="B87" t="s" s="7">
+    <row r="88" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B88" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" ht="22.5" customHeight="1">
-      <c r="B88" t="s" s="7">
+      <c r="C88" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B89" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C89" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="89" ht="22.5" customHeight="1">
-      <c r="B89" t="s" s="7">
+    <row r="90" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B90" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="90" ht="22.5" customHeight="1">
-      <c r="B90" t="s" s="7">
+      <c r="C90" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B91" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C91" s="8">
         <v>49</v>
       </c>
     </row>
-    <row r="91" ht="22.5" customHeight="1">
-      <c r="B91" t="s" s="7">
+    <row r="92" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B92" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" ht="22.5" customHeight="1">
-      <c r="B92" t="s" s="7">
+      <c r="C92" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B93" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C93" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="93" ht="22.5" customHeight="1">
-      <c r="B93" t="s" s="7">
+    <row r="94" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B94" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C94" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="94" ht="22.5" customHeight="1">
-      <c r="B94" t="s" s="7">
+    <row r="95" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B95" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" ht="22.5" customHeight="1">
-      <c r="B95" t="s" s="7">
+      <c r="C95" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B96" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C96" s="7">
         <v>51</v>
       </c>
     </row>
-    <row r="96" ht="22.5" customHeight="1">
-      <c r="B96" t="s" s="7">
+    <row r="97" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B97" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="8">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" ht="22.5" customHeight="1">
-      <c r="B97" t="s" s="7">
+      <c r="C97" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B98" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C98" s="7">
         <v>52</v>
       </c>
     </row>
-    <row r="98" ht="22.5" customHeight="1">
-      <c r="B98" t="s" s="7">
+    <row r="99" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B99" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="8">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" ht="22.5" customHeight="1">
-      <c r="B99" t="s" s="7">
+      <c r="C99" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B100" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C100" s="7">
         <v>53</v>
       </c>
     </row>
-    <row r="100" ht="22.5" customHeight="1">
-      <c r="B100" t="s" s="7">
+    <row r="101" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B101" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" ht="22.5" customHeight="1">
-      <c r="B101" t="s" s="7">
+      <c r="C101" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B102" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="9">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" ht="22.5" customHeight="1">
-      <c r="B102" t="s" s="7">
+      <c r="C102" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B103" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C103" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="103" ht="22.5" customHeight="1">
-      <c r="B103" t="s" s="7">
+    <row r="104" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B104" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="9">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" ht="22.5" customHeight="1">
-      <c r="B104" t="s" s="7">
+      <c r="C104" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B105" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C105" s="8">
         <v>56</v>
       </c>
     </row>
-    <row r="105" ht="22.5" customHeight="1">
-      <c r="B105" t="s" s="7">
+    <row r="106" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B106" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="106" ht="22.5" customHeight="1">
-      <c r="B106" t="s" s="7">
+      <c r="C106" s="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B107" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C107" s="8">
         <v>57</v>
       </c>
     </row>
-    <row r="107" ht="22.5" customHeight="1">
-      <c r="B107" t="s" s="7">
+    <row r="108" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B108" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="9">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" ht="22.5" customHeight="1">
-      <c r="B108" t="s" s="7">
+      <c r="C108" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B109" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="8">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="109" ht="22.5" customHeight="1">
-      <c r="B109" t="s" s="7">
+      <c r="C109" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B110" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="9">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="110" ht="22.5" customHeight="1">
-      <c r="B110" t="s" s="7">
+      <c r="C110" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B111" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C111" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="111" ht="22.5" customHeight="1">
-      <c r="B111" t="s" s="7">
+    <row r="112" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B112" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" ht="22.5" customHeight="1">
-      <c r="B112" t="s" s="7">
+      <c r="C112" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B113" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C113" s="8">
         <v>61</v>
       </c>
     </row>
-    <row r="113" ht="22.5" customHeight="1">
-      <c r="B113" t="s" s="7">
+    <row r="114" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B114" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="9">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" ht="22.5" customHeight="1">
-      <c r="B114" t="s" s="7">
+      <c r="C114" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B115" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="115" ht="22.5" customHeight="1">
-      <c r="B115" t="s" s="7">
+      <c r="C115" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B116" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C116" s="7">
         <v>63</v>
       </c>
     </row>
-    <row r="116" ht="22.5" customHeight="1">
-      <c r="B116" t="s" s="7">
+    <row r="117" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B117" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="8">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="117" ht="22.5" customHeight="1">
-      <c r="B117" t="s" s="7">
+      <c r="C117" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B118" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C118" s="7">
         <v>64</v>
       </c>
     </row>
-    <row r="118" ht="22.5" customHeight="1">
-      <c r="B118" t="s" s="7">
+    <row r="119" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B119" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="119" ht="22.5" customHeight="1">
-      <c r="B119" t="s" s="7">
+      <c r="C119" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B120" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C120" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="120" ht="22.5" customHeight="1">
-      <c r="B120" t="s" s="7">
+    <row r="121" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B121" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="121" ht="22.5" customHeight="1">
-      <c r="B121" t="s" s="7">
+      <c r="C121" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B122" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C122" s="7">
         <v>66</v>
       </c>
     </row>
-    <row r="122" ht="22.5" customHeight="1">
-      <c r="B122" t="s" s="7">
+    <row r="123" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B123" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="123" ht="22.5" customHeight="1">
-      <c r="B123" t="s" s="7">
+      <c r="C123" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B124" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C124" s="7">
         <v>67</v>
       </c>
     </row>
-    <row r="124" ht="22.5" customHeight="1">
-      <c r="B124" t="s" s="7">
+    <row r="125" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B125" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C125" s="8">
         <v>67</v>
       </c>
     </row>
-    <row r="125" ht="22.5" customHeight="1">
-      <c r="B125" t="s" s="7">
+    <row r="126" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B126" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C125" s="9">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="126" ht="22.5" customHeight="1">
-      <c r="B126" t="s" s="7">
+      <c r="C126" s="7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B127" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C127" s="8">
         <v>68</v>
       </c>
     </row>
-    <row r="127" ht="22.5" customHeight="1">
-      <c r="B127" t="s" s="7">
+    <row r="128" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B128" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C127" s="9">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="128" ht="22.5" customHeight="1">
-      <c r="B128" t="s" s="7">
+      <c r="C128" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B129" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C129" s="8">
         <v>69</v>
       </c>
     </row>
-    <row r="129" ht="22.5" customHeight="1">
-      <c r="B129" t="s" s="7">
+    <row r="130" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B130" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C129" s="9">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="130" ht="22.5" customHeight="1">
-      <c r="B130" t="s" s="7">
+      <c r="C130" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B131" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C130" s="8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="131" ht="22.5" customHeight="1">
-      <c r="B131" t="s" s="7">
+      <c r="C131" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B132" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C131" s="9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="132" ht="22.5" customHeight="1">
-      <c r="B132" t="s" s="7">
+      <c r="C132" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B133" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="8">
+      <c r="C133" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="133" ht="22.5" customHeight="1">
-      <c r="B133" t="s" s="7">
+    <row r="134" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B134" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C133" s="9">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="134" ht="22.5" customHeight="1">
-      <c r="B134" t="s" s="7">
+      <c r="C134" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B135" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C135" s="8">
         <v>73</v>
       </c>
     </row>
-    <row r="135" ht="22.5" customHeight="1">
-      <c r="B135" t="s" s="7">
+    <row r="136" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B136" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C136" s="7">
         <v>73</v>
       </c>
     </row>
-    <row r="136" ht="22.5" customHeight="1">
-      <c r="B136" t="s" s="7">
+    <row r="137" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B137" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="8">
+      <c r="C137" s="8">
         <v>73</v>
       </c>
     </row>
-    <row r="137" ht="22.5" customHeight="1">
-      <c r="B137" t="s" s="7">
+    <row r="138" spans="2:3" ht="36.450000000000003" customHeight="1">
+      <c r="B138" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C137" s="9">
+      <c r="C138" s="7">
         <v>73</v>
       </c>
     </row>
-    <row r="138" ht="36.5" customHeight="1">
-      <c r="B138" t="s" s="7">
+    <row r="139" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B139" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C138" s="8">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="139" ht="22.5" customHeight="1">
-      <c r="B139" t="s" s="7">
+      <c r="C139" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B140" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C140" s="7">
         <v>74</v>
       </c>
     </row>
-    <row r="140" ht="22.5" customHeight="1">
-      <c r="B140" t="s" s="7">
+    <row r="141" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B141" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C140" s="8">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="141" ht="22.5" customHeight="1">
-      <c r="B141" t="s" s="7">
+      <c r="C141" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B142" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C141" s="9">
+      <c r="C142" s="7">
         <v>75</v>
       </c>
     </row>
-    <row r="142" ht="22.5" customHeight="1">
-      <c r="B142" t="s" s="7">
+    <row r="143" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B143" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C142" s="8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="143" ht="22.5" customHeight="1">
-      <c r="B143" t="s" s="7">
+      <c r="C143" s="8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B144" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C143" s="9">
+      <c r="C144" s="7">
         <v>76</v>
       </c>
     </row>
-    <row r="144" ht="22.5" customHeight="1">
-      <c r="B144" t="s" s="7">
+    <row r="145" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B145" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C144" s="8">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="145" ht="22.5" customHeight="1">
-      <c r="B145" t="s" s="7">
+      <c r="C145" s="8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B146" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C145" s="9">
+      <c r="C146" s="7">
         <v>77</v>
       </c>
     </row>
-    <row r="146" ht="22.5" customHeight="1">
-      <c r="B146" t="s" s="7">
+    <row r="147" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B147" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="8">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="147" ht="22.5" customHeight="1">
-      <c r="B147" t="s" s="7">
+      <c r="C147" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B148" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="9">
+      <c r="C148" s="7">
         <v>78</v>
       </c>
     </row>
-    <row r="148" ht="22.5" customHeight="1">
-      <c r="B148" t="s" s="7">
+    <row r="149" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B149" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="8">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="149" ht="22.5" customHeight="1">
-      <c r="B149" t="s" s="7">
+      <c r="C149" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B150" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C149" s="9">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="150" ht="22.5" customHeight="1">
-      <c r="B150" t="s" s="7">
+      <c r="C150" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B151" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C150" s="8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="151" ht="22.5" customHeight="1">
-      <c r="B151" t="s" s="7">
+      <c r="C151" s="8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B152" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C151" s="9">
+      <c r="C152" s="7">
         <v>81</v>
       </c>
     </row>
-    <row r="152" ht="22.5" customHeight="1">
-      <c r="B152" t="s" s="7">
+    <row r="153" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B153" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="8">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="153" ht="22.5" customHeight="1">
-      <c r="B153" t="s" s="7">
+      <c r="C153" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B154" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="9">
+      <c r="C154" s="7">
         <v>82</v>
       </c>
     </row>
-    <row r="154" ht="22.5" customHeight="1">
-      <c r="B154" t="s" s="7">
+    <row r="155" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B155" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C154" s="8">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="155" ht="22.5" customHeight="1">
-      <c r="B155" t="s" s="7">
+      <c r="C155" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B156" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="9">
+      <c r="C156" s="7">
         <v>83</v>
       </c>
     </row>
-    <row r="156" ht="22.5" customHeight="1">
-      <c r="B156" t="s" s="7">
+    <row r="157" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B157" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="157" ht="22.5" customHeight="1">
-      <c r="B157" t="s" s="7">
+      <c r="C157" s="8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B158" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C158" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="158" ht="22.5" customHeight="1">
-      <c r="B158" t="s" s="7">
+    <row r="159" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B159" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="8">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="159" ht="22.5" customHeight="1">
-      <c r="B159" t="s" s="7">
+      <c r="C159" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B160" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="9">
+      <c r="C160" s="7">
         <v>85</v>
       </c>
     </row>
-    <row r="160" ht="22.5" customHeight="1">
-      <c r="B160" t="s" s="7">
+    <row r="161" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B161" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="8">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="161" ht="22.5" customHeight="1">
-      <c r="B161" t="s" s="7">
+      <c r="C161" s="8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B162" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="9">
+      <c r="C162" s="7">
         <v>86</v>
       </c>
     </row>
-    <row r="162" ht="22.5" customHeight="1">
-      <c r="B162" t="s" s="7">
+    <row r="163" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B163" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="8">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="163" ht="22.5" customHeight="1">
-      <c r="B163" t="s" s="7">
+      <c r="C163" s="8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B164" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="9">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="164" ht="22.5" customHeight="1">
-      <c r="B164" t="s" s="7">
+      <c r="C164" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B165" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="8">
+      <c r="C165" s="8">
         <v>88</v>
       </c>
     </row>
-    <row r="165" ht="22.5" customHeight="1">
-      <c r="B165" t="s" s="7">
+    <row r="166" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B166" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="9">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="166" ht="22.5" customHeight="1">
-      <c r="B166" t="s" s="7">
+      <c r="C166" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B167" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="8">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="167" ht="22.5" customHeight="1">
-      <c r="B167" t="s" s="7">
+      <c r="C167" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B168" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="168" ht="22.5" customHeight="1">
-      <c r="B168" t="s" s="7">
+      <c r="C168" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B169" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="8">
+      <c r="C169" s="8">
         <v>91</v>
       </c>
     </row>
-    <row r="169" ht="22.5" customHeight="1">
-      <c r="B169" t="s" s="7">
+    <row r="170" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B170" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C169" s="9">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="170" ht="22.5" customHeight="1">
-      <c r="B170" t="s" s="7">
+      <c r="C170" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B171" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="8">
+      <c r="C171" s="8">
         <v>92</v>
       </c>
     </row>
-    <row r="171" ht="22.5" customHeight="1">
-      <c r="B171" t="s" s="7">
+    <row r="172" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B172" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="9">
+      <c r="C172" s="7">
         <v>92</v>
       </c>
     </row>
-    <row r="172" ht="22.5" customHeight="1">
-      <c r="B172" t="s" s="7">
+    <row r="173" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B173" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="8">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="173" ht="22.5" customHeight="1">
-      <c r="B173" t="s" s="7">
+      <c r="C173" s="8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B174" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="9">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="174" ht="22.5" customHeight="1">
-      <c r="B174" t="s" s="7">
+      <c r="C174" s="7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B175" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="8">
+      <c r="C175" s="8">
         <v>94</v>
       </c>
     </row>
-    <row r="175" ht="22.5" customHeight="1">
-      <c r="B175" t="s" s="7">
+    <row r="176" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B176" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C175" s="9">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="176" ht="22.5" customHeight="1">
-      <c r="B176" t="s" s="7">
+      <c r="C176" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B177" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C177" s="8">
         <v>95</v>
       </c>
     </row>
-    <row r="177" ht="22.5" customHeight="1">
-      <c r="B177" t="s" s="7">
+    <row r="178" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B178" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C177" s="9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="178" ht="22.5" customHeight="1">
-      <c r="B178" t="s" s="7">
+      <c r="C178" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B179" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="8">
+      <c r="C179" s="8">
         <v>96</v>
       </c>
     </row>
-    <row r="179" ht="22.5" customHeight="1">
-      <c r="B179" t="s" s="7">
+    <row r="180" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B180" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C179" s="9">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="180" ht="22.5" customHeight="1">
-      <c r="B180" t="s" s="7">
+      <c r="C180" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B181" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C181" s="8">
         <v>97</v>
       </c>
     </row>
-    <row r="181" ht="22.5" customHeight="1">
-      <c r="B181" t="s" s="7">
+    <row r="182" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B182" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="9">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="182" ht="22.5" customHeight="1">
-      <c r="B182" t="s" s="7">
+      <c r="C182" s="7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B183" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="8">
+      <c r="C183" s="8">
         <v>98</v>
       </c>
     </row>
-    <row r="183" ht="22.5" customHeight="1">
-      <c r="B183" t="s" s="7">
+    <row r="184" spans="2:3" ht="22.5" customHeight="1">
+      <c r="B184" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="9">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="184" ht="22.5" customHeight="1">
-      <c r="B184" t="s" s="7">
+      <c r="C184" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" ht="22.8" customHeight="1">
+      <c r="B185" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="8">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="185" ht="22.75" customHeight="1">
-      <c r="B185" t="s" s="13">
-        <v>184</v>
-      </c>
-      <c r="C185" s="14">
+      <c r="C185" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="186" ht="20.75" customHeight="1">
-      <c r="B186" s="15"/>
-      <c r="C186" s="16"/>
+    <row r="186" spans="2:3" ht="20.7" customHeight="1">
+      <c r="B186" s="14"/>
+      <c r="C186" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/prisma/guest.xlsx
+++ b/prisma/guest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karla\Documents\GitHub\wedding_backend\prisma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7A7104B-8B3F-4E25-A9B1-B9D1A15CA73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16551CD-D1F1-463F-981C-5B718B2AF1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,580 +70,580 @@
     <t>Francisco Callejas</t>
   </si>
   <si>
+    <t>Rafael Portillo</t>
+  </si>
+  <si>
+    <t>Lorena de Portillo</t>
+  </si>
+  <si>
+    <t>Carlos Portillo</t>
+  </si>
+  <si>
+    <t>Margarita de Portillo</t>
+  </si>
+  <si>
+    <t>Andrea Portillo</t>
+  </si>
+  <si>
+    <t>Erick Fragoso</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Portillo</t>
+  </si>
+  <si>
+    <t>Plus One Mafer</t>
+  </si>
+  <si>
+    <t>Ana Paulina de Pacas</t>
+  </si>
+  <si>
+    <t>Alberto Pacas</t>
+  </si>
+  <si>
+    <t>Paulina Pacas</t>
+  </si>
+  <si>
+    <t>Juan Groh</t>
+  </si>
+  <si>
+    <t>Josemaria Pacas</t>
+  </si>
+  <si>
+    <t>Alberto Pacas C</t>
+  </si>
+  <si>
+    <t>Roberto Callejas</t>
+  </si>
+  <si>
+    <t>Jacqueline de Callejas</t>
+  </si>
+  <si>
+    <t>Sofia Callejas</t>
+  </si>
+  <si>
+    <t>Roberto López</t>
+  </si>
+  <si>
+    <t>Marialuisa Cornejo</t>
+  </si>
+  <si>
+    <t>Alberto Madrigal</t>
+  </si>
+  <si>
+    <t>Sofia Rivera</t>
+  </si>
+  <si>
+    <t>Michael Seaborg</t>
+  </si>
+  <si>
+    <t>Luis Antonio Martinez</t>
+  </si>
+  <si>
+    <t>Luis Ernesto Martinez</t>
+  </si>
+  <si>
+    <t>Sofia Jaime</t>
+  </si>
+  <si>
+    <t>Beatriz Selva</t>
+  </si>
+  <si>
+    <t>Rebeca Aguirre</t>
+  </si>
+  <si>
+    <t>Michelle Murra</t>
+  </si>
+  <si>
+    <t>Martin Savariau</t>
+  </si>
+  <si>
+    <t>Fernanda Amaya</t>
+  </si>
+  <si>
+    <t>Ana Christina Mata</t>
+  </si>
+  <si>
+    <t>Diego Quiros</t>
+  </si>
+  <si>
+    <t>Andrea Duran</t>
+  </si>
+  <si>
+    <t>Ana Lucia Rosales</t>
+  </si>
+  <si>
+    <t>Diego Barrientos</t>
+  </si>
+  <si>
+    <t>Irene Rosales</t>
+  </si>
+  <si>
+    <t>Julio Escobar</t>
+  </si>
+  <si>
+    <t>Andres Rosales</t>
+  </si>
+  <si>
+    <t>Michelle Guillen</t>
+  </si>
+  <si>
+    <t>Andrea Gallardo</t>
+  </si>
+  <si>
+    <t>Andres Montenegro</t>
+  </si>
+  <si>
+    <t>Annette Handal</t>
+  </si>
+  <si>
+    <t>José Manuel Perez</t>
+  </si>
+  <si>
+    <t>Monica Fuentes</t>
+  </si>
+  <si>
+    <t>Elias Murra Mohor</t>
+  </si>
+  <si>
+    <t>Daniella Torrez</t>
+  </si>
+  <si>
+    <t>Salvador Sanchez</t>
+  </si>
+  <si>
+    <t>Maria Isabel Montes</t>
+  </si>
+  <si>
+    <t>Camila Koch</t>
+  </si>
+  <si>
+    <t>Diego Cordón</t>
+  </si>
+  <si>
+    <t>Claudia Flores</t>
+  </si>
+  <si>
+    <t>Juan Carlos Saca B</t>
+  </si>
+  <si>
+    <t>Jenny Aguiluz</t>
+  </si>
+  <si>
+    <t>Eduardo Saca</t>
+  </si>
+  <si>
+    <t>Ana Lucia Mata</t>
+  </si>
+  <si>
+    <t>Daniel Telles</t>
+  </si>
+  <si>
+    <t>Dionicio Abrego</t>
+  </si>
+  <si>
+    <t>Enrique Funes</t>
+  </si>
+  <si>
+    <t>Gabriela Romero</t>
+  </si>
+  <si>
+    <t>Andrea Romero</t>
+  </si>
+  <si>
+    <t>Mario Rico</t>
+  </si>
+  <si>
+    <t>Noemy Melara</t>
+  </si>
+  <si>
+    <t>Irene de Rivera</t>
+  </si>
+  <si>
+    <t>Max Rivera</t>
+  </si>
+  <si>
+    <t>Emilia Rivera</t>
+  </si>
+  <si>
+    <t>Claudia Castro</t>
+  </si>
+  <si>
+    <t>Monica de Saca</t>
+  </si>
+  <si>
+    <t>Juan Carlos Saca</t>
+  </si>
+  <si>
+    <t>Ana Lorena de Aviles</t>
+  </si>
+  <si>
+    <t>Pablo Aviles</t>
+  </si>
+  <si>
+    <t>Claudia de Rosales</t>
+  </si>
+  <si>
+    <t>Paul Rosales</t>
+  </si>
+  <si>
+    <t>Beatriz de Mena</t>
+  </si>
+  <si>
+    <t>Francisco Mena</t>
+  </si>
+  <si>
+    <t>Enrique Mena</t>
+  </si>
+  <si>
+    <t>Claudia de Bermudez</t>
+  </si>
+  <si>
+    <t>Oscar Bermudez</t>
+  </si>
+  <si>
+    <t>Oscar Bermudez Portillo</t>
+  </si>
+  <si>
+    <t>Luciana de Bermudez</t>
+  </si>
+  <si>
+    <t>Stefanie de Vasquez</t>
+  </si>
+  <si>
+    <t>Carlos Vasquez</t>
+  </si>
+  <si>
+    <t>Javier Bermudez</t>
+  </si>
+  <si>
+    <t>Valeria Castillo</t>
+  </si>
+  <si>
+    <t>Lilian de Petrozzino</t>
+  </si>
+  <si>
+    <t>Enzo Petrozzino</t>
+  </si>
+  <si>
+    <t>Camy Petrozino</t>
+  </si>
+  <si>
+    <t>José Antonio Aguilar</t>
+  </si>
+  <si>
+    <t>Francesca Petrozzino</t>
+  </si>
+  <si>
+    <t>Felix Sánchez</t>
+  </si>
+  <si>
+    <t>Valeria Villareal</t>
+  </si>
+  <si>
+    <t>Norma de Peña</t>
+  </si>
+  <si>
+    <t>Conchita Peña</t>
+  </si>
+  <si>
+    <t>Mauricio Cabrera</t>
+  </si>
+  <si>
+    <t>Sandra Peña</t>
+  </si>
+  <si>
+    <t>Jorge Mujica</t>
+  </si>
+  <si>
+    <t>Maria Ulloa</t>
+  </si>
+  <si>
+    <t>Rodrigo Cruz</t>
+  </si>
+  <si>
+    <t>Mayra Cruz</t>
+  </si>
+  <si>
+    <t>Carmen de Calderón</t>
+  </si>
+  <si>
+    <t>Miguel Fabio Calderon</t>
+  </si>
+  <si>
+    <t>Jose Roberto Ulloa</t>
+  </si>
+  <si>
+    <t>Johanna Palma</t>
+  </si>
+  <si>
+    <t>Edith de Guadron</t>
+  </si>
+  <si>
+    <t>Ricardo Guadron</t>
+  </si>
+  <si>
+    <t>Susana Guadron</t>
+  </si>
+  <si>
+    <t>Moises Cornejo</t>
+  </si>
+  <si>
+    <t>Emma Guadron</t>
+  </si>
+  <si>
+    <t>Carlos Guardon</t>
+  </si>
+  <si>
+    <t>Johanna Recinos</t>
+  </si>
+  <si>
+    <t>Diego Zelaya</t>
+  </si>
+  <si>
+    <t>Jessica de Zelaya</t>
+  </si>
+  <si>
+    <t>Ricardo Zelaya</t>
+  </si>
+  <si>
+    <t>Ana del Carmen Gamarro</t>
+  </si>
+  <si>
+    <t>Carlos Orellana</t>
+  </si>
+  <si>
+    <t>Norma Trujillo</t>
+  </si>
+  <si>
+    <t>Rosa Melara</t>
+  </si>
+  <si>
+    <t>Benjamin Pacas</t>
+  </si>
+  <si>
+    <t>Carmen de Pacas</t>
+  </si>
+  <si>
+    <t>Carmen Elisa Callejas</t>
+  </si>
+  <si>
+    <t>George Baxter</t>
+  </si>
+  <si>
+    <t>Mario Callejas</t>
+  </si>
+  <si>
+    <t>Cristina Callejas</t>
+  </si>
+  <si>
+    <t>Alfredo Callejas</t>
+  </si>
+  <si>
+    <t>Carmen Elisa Sosa de Callejas</t>
+  </si>
+  <si>
+    <t>Fernando Galdamez</t>
+  </si>
+  <si>
+    <t>Marcela de Galdamez</t>
+  </si>
+  <si>
+    <t>Juan Rivera</t>
+  </si>
+  <si>
+    <t>Emilia de Rivera</t>
+  </si>
+  <si>
+    <t>Pere Bresco</t>
+  </si>
+  <si>
+    <t>Cristina Bresco</t>
+  </si>
+  <si>
+    <t>Coky de Cornejo</t>
+  </si>
+  <si>
+    <t>Oscar Cornejo</t>
+  </si>
+  <si>
+    <t>Carolina de Murra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elias Murra </t>
+  </si>
+  <si>
+    <t>Beatriz Puente</t>
+  </si>
+  <si>
+    <t>Carla de Martinez</t>
+  </si>
+  <si>
+    <t>Manuel Rivera</t>
+  </si>
+  <si>
+    <t>Sonia de Rivera</t>
+  </si>
+  <si>
+    <t>Alicia Avelar</t>
+  </si>
+  <si>
+    <t>Ana Maria de Revelo</t>
+  </si>
+  <si>
+    <t>Eduardo Revelo</t>
+  </si>
+  <si>
+    <t>Mariano Samayoa</t>
+  </si>
+  <si>
+    <t>Eugenia Samayoa</t>
+  </si>
+  <si>
+    <t>Boris Ferman</t>
+  </si>
+  <si>
+    <t>Margarita Chica de Ferman</t>
+  </si>
+  <si>
+    <t>Alicia Corleto</t>
+  </si>
+  <si>
+    <t>Felipe Ronquillo</t>
+  </si>
+  <si>
+    <t>José Villeda</t>
+  </si>
+  <si>
+    <t>Teresa Lopez de Villeda</t>
+  </si>
+  <si>
+    <t>Carla Callejas</t>
+  </si>
+  <si>
+    <t>Wilman Gomez</t>
+  </si>
+  <si>
+    <t>Ana Emilia Vega</t>
+  </si>
+  <si>
+    <t>Jose Luis Montalvo</t>
+  </si>
+  <si>
+    <t>Constance de Montalvo</t>
+  </si>
+  <si>
+    <t>Josefina Montalvo</t>
+  </si>
+  <si>
+    <t>Mercedes de Valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Victor Aragón </t>
+  </si>
+  <si>
+    <t>Leticia Valencia</t>
+  </si>
+  <si>
+    <t>Fernando Perez Mejia</t>
+  </si>
+  <si>
+    <t>Abigail Castro de Perez</t>
+  </si>
+  <si>
+    <t>Katia Galdamez de Guerra</t>
+  </si>
+  <si>
+    <t>Hugo Guerra</t>
+  </si>
+  <si>
+    <t>Aida Cabrales</t>
+  </si>
+  <si>
+    <t>Kruger Chamberlain</t>
+  </si>
+  <si>
+    <t>Ana Maria de Chamberlain</t>
+  </si>
+  <si>
+    <t>Francisco Anaya</t>
+  </si>
+  <si>
+    <t>Laura de Anaya</t>
+  </si>
+  <si>
+    <t>Francesca Callejas</t>
+  </si>
+  <si>
+    <t>Rodrigo Callejas</t>
+  </si>
+  <si>
+    <t>Carlos Mata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carla de Mata </t>
+  </si>
+  <si>
+    <t>Dina Mejia</t>
+  </si>
+  <si>
+    <t>Sonia Garcia</t>
+  </si>
+  <si>
+    <t>Safia Bouzeman</t>
+  </si>
+  <si>
+    <t>Josue Reyes</t>
+  </si>
+  <si>
+    <t>Ana Marisol de Gamero</t>
+  </si>
+  <si>
+    <t>Francisco Gamero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlie Vega </t>
+  </si>
+  <si>
+    <t>Patricia de Vega</t>
+  </si>
+  <si>
+    <t>Edwin Valle</t>
+  </si>
+  <si>
+    <t>Sonia de Valle</t>
+  </si>
+  <si>
+    <t>Rosa de Melhado</t>
+  </si>
+  <si>
+    <t>Eduardo Cabrales</t>
+  </si>
+  <si>
+    <t>Nadia de Cabrales</t>
+  </si>
+  <si>
+    <t>Manuel Machon</t>
+  </si>
+  <si>
+    <t>Ana Patricia de Machon</t>
+  </si>
+  <si>
+    <t>Miguelangel Giammattei</t>
+  </si>
+  <si>
+    <t>Iris Giammattei</t>
+  </si>
+  <si>
+    <t>Emmy Ortiz</t>
+  </si>
+  <si>
+    <t>Eugenia Pocasangre</t>
+  </si>
+  <si>
+    <t>Andrea Mendoza</t>
+  </si>
+  <si>
     <t>Maria Dolores de Callejas</t>
-  </si>
-  <si>
-    <t>Rafael Portillo</t>
-  </si>
-  <si>
-    <t>Lorena de Portillo</t>
-  </si>
-  <si>
-    <t>Carlos Portillo</t>
-  </si>
-  <si>
-    <t>Margarita de Portillo</t>
-  </si>
-  <si>
-    <t>Andrea Portillo</t>
-  </si>
-  <si>
-    <t>Erick Fragoso</t>
-  </si>
-  <si>
-    <t>Maria Fernanda Portillo</t>
-  </si>
-  <si>
-    <t>Plus One Mafer</t>
-  </si>
-  <si>
-    <t>Ana Paulina de Pacas</t>
-  </si>
-  <si>
-    <t>Alberto Pacas</t>
-  </si>
-  <si>
-    <t>Paulina Pacas</t>
-  </si>
-  <si>
-    <t>Juan Groh</t>
-  </si>
-  <si>
-    <t>Josemaria Pacas</t>
-  </si>
-  <si>
-    <t>Alberto Pacas C</t>
-  </si>
-  <si>
-    <t>Roberto Callejas</t>
-  </si>
-  <si>
-    <t>Jacqueline de Callejas</t>
-  </si>
-  <si>
-    <t>Sofia Callejas</t>
-  </si>
-  <si>
-    <t>Roberto hijo jacky</t>
-  </si>
-  <si>
-    <t>Marialuisa Cornejo</t>
-  </si>
-  <si>
-    <t>Alberto Madrigal</t>
-  </si>
-  <si>
-    <t>Sofia Rivera</t>
-  </si>
-  <si>
-    <t>Michael Seaborg</t>
-  </si>
-  <si>
-    <t>Luis Antonio Martinez</t>
-  </si>
-  <si>
-    <t>Luis Ernesto Martinez</t>
-  </si>
-  <si>
-    <t>Sofia Jaime</t>
-  </si>
-  <si>
-    <t>Beatriz Selva</t>
-  </si>
-  <si>
-    <t>Rebeca Aguirre</t>
-  </si>
-  <si>
-    <t>Michelle Murra</t>
-  </si>
-  <si>
-    <t>Martin Savariau</t>
-  </si>
-  <si>
-    <t>Fernanda Amaya</t>
-  </si>
-  <si>
-    <t>Ana Christina Mata</t>
-  </si>
-  <si>
-    <t>Diego Quiros</t>
-  </si>
-  <si>
-    <t>Andrea Duran</t>
-  </si>
-  <si>
-    <t>Andrea Mendoza</t>
-  </si>
-  <si>
-    <t>Ana Lucia Rosales</t>
-  </si>
-  <si>
-    <t>Diego Barrientos</t>
-  </si>
-  <si>
-    <t>Irene Rosales</t>
-  </si>
-  <si>
-    <t>Julio Escobar</t>
-  </si>
-  <si>
-    <t>Andres Rosales</t>
-  </si>
-  <si>
-    <t>Michelle Guillen</t>
-  </si>
-  <si>
-    <t>Andrea Gallardo</t>
-  </si>
-  <si>
-    <t>Andres Montenegro</t>
-  </si>
-  <si>
-    <t>Annette Handal</t>
-  </si>
-  <si>
-    <t>José Manuel Perez</t>
-  </si>
-  <si>
-    <t>Monica Fuentes</t>
-  </si>
-  <si>
-    <t>Elias Murra Mohor</t>
-  </si>
-  <si>
-    <t>Daniella Torrez</t>
-  </si>
-  <si>
-    <t>Salvador Sanchez</t>
-  </si>
-  <si>
-    <t>Maria Isabel Montes</t>
-  </si>
-  <si>
-    <t>Camila Koch</t>
-  </si>
-  <si>
-    <t>Diego Cordón</t>
-  </si>
-  <si>
-    <t>Claudia Flores</t>
-  </si>
-  <si>
-    <t>Juan Carlos Saca B</t>
-  </si>
-  <si>
-    <t>Jenny Aguiluz</t>
-  </si>
-  <si>
-    <t>Eduardo Saca</t>
-  </si>
-  <si>
-    <t>Ana Lucia Mata</t>
-  </si>
-  <si>
-    <t>Daniel Telles</t>
-  </si>
-  <si>
-    <t>Dionicio Abrego</t>
-  </si>
-  <si>
-    <t>Enrique Funes</t>
-  </si>
-  <si>
-    <t>Gabriela Romero</t>
-  </si>
-  <si>
-    <t>Andrea Romero</t>
-  </si>
-  <si>
-    <t>Mario Rico</t>
-  </si>
-  <si>
-    <t>Noemy Melara</t>
-  </si>
-  <si>
-    <t>Irene de Rivera</t>
-  </si>
-  <si>
-    <t>Max Rivera</t>
-  </si>
-  <si>
-    <t>Emilia Rivera</t>
-  </si>
-  <si>
-    <t>Claudia Castro</t>
-  </si>
-  <si>
-    <t>Monica de Saca</t>
-  </si>
-  <si>
-    <t>Juan Carlos Saca</t>
-  </si>
-  <si>
-    <t>Ana Lorena de Aviles</t>
-  </si>
-  <si>
-    <t>Pablo Aviles</t>
-  </si>
-  <si>
-    <t>Claudia de Rosales</t>
-  </si>
-  <si>
-    <t>Paul Rosales</t>
-  </si>
-  <si>
-    <t>Beatriz de Mena</t>
-  </si>
-  <si>
-    <t>Francisco Mena</t>
-  </si>
-  <si>
-    <t>Enrique Mena</t>
-  </si>
-  <si>
-    <t>Claudia de Bermudez</t>
-  </si>
-  <si>
-    <t>Oscar Bermudez</t>
-  </si>
-  <si>
-    <t>Oscar Bermudez Portillo</t>
-  </si>
-  <si>
-    <t>Luciana de Bermudez</t>
-  </si>
-  <si>
-    <t>Stefanie de Vasquez</t>
-  </si>
-  <si>
-    <t>Carlos Vasquez</t>
-  </si>
-  <si>
-    <t>Javier Bermudez</t>
-  </si>
-  <si>
-    <t>Valeria Castillo</t>
-  </si>
-  <si>
-    <t>Lilian de Petrozzino</t>
-  </si>
-  <si>
-    <t>Enzo Petrozzino</t>
-  </si>
-  <si>
-    <t>Camy Petrozino</t>
-  </si>
-  <si>
-    <t>José Antonio Aguilar</t>
-  </si>
-  <si>
-    <t>Francesca Petrozzino</t>
-  </si>
-  <si>
-    <t>Felix Sánchez</t>
-  </si>
-  <si>
-    <t>Valeria Villareal</t>
-  </si>
-  <si>
-    <t>Norma de Peña</t>
-  </si>
-  <si>
-    <t>Conchita Peña</t>
-  </si>
-  <si>
-    <t>Mauricio Cabrera</t>
-  </si>
-  <si>
-    <t>Sandra Peña</t>
-  </si>
-  <si>
-    <t>Jorge Mujica</t>
-  </si>
-  <si>
-    <t>Maria Ulloa</t>
-  </si>
-  <si>
-    <t>Rodrigo Cruz</t>
-  </si>
-  <si>
-    <t>Mayra Cruz</t>
-  </si>
-  <si>
-    <t>Carmen de Calderón</t>
-  </si>
-  <si>
-    <t>Miguel Fabio Calderon</t>
-  </si>
-  <si>
-    <t>Jose Roberto Ulloa</t>
-  </si>
-  <si>
-    <t>Johanna Palma</t>
-  </si>
-  <si>
-    <t>Edith de Guadron</t>
-  </si>
-  <si>
-    <t>Ricardo Guadron</t>
-  </si>
-  <si>
-    <t>Susana Guadron</t>
-  </si>
-  <si>
-    <t>Moises Cornejo</t>
-  </si>
-  <si>
-    <t>Emma Guadron</t>
-  </si>
-  <si>
-    <t>Carlos Guardon</t>
-  </si>
-  <si>
-    <t>Johanna Recinos</t>
-  </si>
-  <si>
-    <t>Diego Zelaya</t>
-  </si>
-  <si>
-    <t>Jessica de Zelaya</t>
-  </si>
-  <si>
-    <t>Ricardo Zelaya</t>
-  </si>
-  <si>
-    <t>Ana del Carmen Gamarro</t>
-  </si>
-  <si>
-    <t>Carlos Orellana</t>
-  </si>
-  <si>
-    <t>Norma Trujillo</t>
-  </si>
-  <si>
-    <t>Rosa Melara</t>
-  </si>
-  <si>
-    <t>Benjamin Pacas</t>
-  </si>
-  <si>
-    <t>Carmen de Pacas</t>
-  </si>
-  <si>
-    <t>Carmen Elisa Callejas</t>
-  </si>
-  <si>
-    <t>George Baxter</t>
-  </si>
-  <si>
-    <t>Mario Callejas</t>
-  </si>
-  <si>
-    <t>Cristina Callejas</t>
-  </si>
-  <si>
-    <t>Alfredo Callejas</t>
-  </si>
-  <si>
-    <t>Carmen Elisa Sosa de Callejas</t>
-  </si>
-  <si>
-    <t>Fernando Galdamez</t>
-  </si>
-  <si>
-    <t>Marcela de Galdamez</t>
-  </si>
-  <si>
-    <t>Juan Rivera</t>
-  </si>
-  <si>
-    <t>Emilia de Rivera</t>
-  </si>
-  <si>
-    <t>Pere Bresco</t>
-  </si>
-  <si>
-    <t>Cristina Bresco</t>
-  </si>
-  <si>
-    <t>Coky de Cornejo</t>
-  </si>
-  <si>
-    <t>Oscar Cornejo</t>
-  </si>
-  <si>
-    <t>Carolina de Murra</t>
-  </si>
-  <si>
-    <t>Elias Murra Saca</t>
-  </si>
-  <si>
-    <t>Beatriz Puente</t>
-  </si>
-  <si>
-    <t>Carla de Martinez</t>
-  </si>
-  <si>
-    <t>Manuel Rivera</t>
-  </si>
-  <si>
-    <t>Sonia de Rivera</t>
-  </si>
-  <si>
-    <t>Alicia Avelar</t>
-  </si>
-  <si>
-    <t>Ana Maria de Revelo</t>
-  </si>
-  <si>
-    <t>Eduardo Revelo</t>
-  </si>
-  <si>
-    <t>Mariano Samayoa</t>
-  </si>
-  <si>
-    <t>Eugenia Samayoa</t>
-  </si>
-  <si>
-    <t>Boris Ferman</t>
-  </si>
-  <si>
-    <t>Margarita Chica de Ferman</t>
-  </si>
-  <si>
-    <t>Alicia Corleto</t>
-  </si>
-  <si>
-    <t>Felipe Ronquillo</t>
-  </si>
-  <si>
-    <t>José Villeda</t>
-  </si>
-  <si>
-    <t>Teresa Lopez de Villeda</t>
-  </si>
-  <si>
-    <t>Carla Callejas</t>
-  </si>
-  <si>
-    <t>Wilman Gomez</t>
-  </si>
-  <si>
-    <t>Ana Emilia Vega</t>
-  </si>
-  <si>
-    <t>Jose Luis Montalvo</t>
-  </si>
-  <si>
-    <t>Constance de Montalvo</t>
-  </si>
-  <si>
-    <t>Josefina Montalvo</t>
-  </si>
-  <si>
-    <t>Mercedes de Valencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Victor Aragón </t>
-  </si>
-  <si>
-    <t>Leticia Valencia</t>
-  </si>
-  <si>
-    <t>Fernando Perez Mejia</t>
-  </si>
-  <si>
-    <t>Abigail Castro de Perez</t>
-  </si>
-  <si>
-    <t>Katia Galdamez de Guerra</t>
-  </si>
-  <si>
-    <t>Hugo Guerra</t>
-  </si>
-  <si>
-    <t>Aida Cabrales</t>
-  </si>
-  <si>
-    <t>Kruger Chamberlain</t>
-  </si>
-  <si>
-    <t>Ana Maria de Chamberlain</t>
-  </si>
-  <si>
-    <t>Francisco Anaya</t>
-  </si>
-  <si>
-    <t>Laura de Anaya</t>
-  </si>
-  <si>
-    <t>Francesca Callejas</t>
-  </si>
-  <si>
-    <t>Rodrigo Callejas</t>
-  </si>
-  <si>
-    <t>Carlos Mata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carla de Mata </t>
-  </si>
-  <si>
-    <t>Dina Mejia</t>
-  </si>
-  <si>
-    <t>Sonia Garcia</t>
-  </si>
-  <si>
-    <t>Safia Bouzeman</t>
-  </si>
-  <si>
-    <t>Josue Reyes</t>
-  </si>
-  <si>
-    <t>Ana Marisol de Gamero</t>
-  </si>
-  <si>
-    <t>Francisco Gamero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlie Vega </t>
-  </si>
-  <si>
-    <t>Patricia de Vega</t>
-  </si>
-  <si>
-    <t>Edwin Valle</t>
-  </si>
-  <si>
-    <t>Sonia de Valle</t>
-  </si>
-  <si>
-    <t>Rosa de Melhado</t>
-  </si>
-  <si>
-    <t>Eduardo Cabrales</t>
-  </si>
-  <si>
-    <t>Nadia de Cabrales</t>
-  </si>
-  <si>
-    <t>Manuel Machon</t>
-  </si>
-  <si>
-    <t>Ana Patricia de Machon</t>
-  </si>
-  <si>
-    <t>Miguelangel Giammattei</t>
-  </si>
-  <si>
-    <t>Iris Giammattei</t>
-  </si>
-  <si>
-    <t>Emmy Ortiz</t>
-  </si>
-  <si>
-    <t>Eugenia Pocasangre</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -1949,7 +1949,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
@@ -2100,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22.5" customHeight="1">
@@ -2116,7 +2116,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22.5" customHeight="1">
@@ -2128,27 +2128,27 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
-        <v>10</v>
+      <c r="B22" s="10">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="6">
-        <v>11</v>
+      <c r="B24" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1">
@@ -2160,11 +2160,11 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="10">
-        <v>12</v>
+      <c r="B26" s="6">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="22.5" customHeight="1">
@@ -2176,18 +2176,18 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="6">
-        <v>13</v>
+      <c r="B28" s="10">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="6">
         <v>14</v>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="22.5" customHeight="1">
@@ -2212,7 +2212,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="22.5" customHeight="1">
@@ -2240,34 +2240,34 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
-        <v>16</v>
+      <c r="B36" s="8">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
-        <v>17</v>
+      <c r="B38" s="8">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="6">
         <v>18</v>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="22.5" customHeight="1">
@@ -2284,14 +2284,14 @@
         <v>39</v>
       </c>
       <c r="B41" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="12">
         <v>20</v>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="22.5" customHeight="1">
@@ -2308,7 +2308,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="22.5" customHeight="1">
@@ -2316,23 +2316,23 @@
         <v>43</v>
       </c>
       <c r="B45" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="6">
-        <v>23</v>
+      <c r="B47" s="12">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="22.5" customHeight="1">
@@ -2340,23 +2340,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="6">
-        <v>25</v>
+      <c r="B50" s="10">
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="22.5" customHeight="1">
@@ -2364,7 +2364,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="22.5" customHeight="1">
@@ -2372,7 +2372,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="22.5" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="22.5" customHeight="1">
@@ -2388,15 +2388,15 @@
         <v>52</v>
       </c>
       <c r="B54" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="10">
-        <v>28</v>
+      <c r="B55" s="6">
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="22.5" customHeight="1">
@@ -2404,7 +2404,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="22.5" customHeight="1">
@@ -2412,7 +2412,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="22.5" customHeight="1">
@@ -2420,7 +2420,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="22.5" customHeight="1">
@@ -2428,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="22.5" customHeight="1">
@@ -2436,7 +2436,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="22.5" customHeight="1">
@@ -2444,7 +2444,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="22.5" customHeight="1">
@@ -2452,7 +2452,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="22.5" customHeight="1">
@@ -2460,7 +2460,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="6">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="22.5" customHeight="1">
@@ -2468,7 +2468,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="22.5" customHeight="1">
@@ -2476,7 +2476,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="22.5" customHeight="1">
@@ -2484,7 +2484,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="6">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="22.5" customHeight="1">
@@ -2492,7 +2492,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="22.5" customHeight="1">
@@ -2500,7 +2500,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="6">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="22.5" customHeight="1">
@@ -2508,7 +2508,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="6">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="22.5" customHeight="1">
@@ -2516,7 +2516,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="22.5" customHeight="1">
@@ -2524,7 +2524,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="22.5" customHeight="1">
@@ -2532,7 +2532,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="6">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="22.5" customHeight="1">
@@ -2540,7 +2540,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="22.5" customHeight="1">
@@ -2548,7 +2548,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="22.5" customHeight="1">
@@ -2556,7 +2556,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="22.5" customHeight="1">
@@ -2564,7 +2564,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="22.5" customHeight="1">
@@ -2572,7 +2572,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="22.5" customHeight="1">
@@ -2580,7 +2580,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="22.5" customHeight="1">
@@ -2588,7 +2588,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="22.5" customHeight="1">
@@ -2596,7 +2596,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="22.5" customHeight="1">
@@ -2604,7 +2604,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="22.5" customHeight="1">
@@ -2620,7 +2620,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="22.5" customHeight="1">
@@ -2628,7 +2628,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="22.5" customHeight="1">
@@ -2636,7 +2636,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="22.5" customHeight="1">
@@ -2644,7 +2644,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="22.5" customHeight="1">
@@ -2652,7 +2652,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="22.5" customHeight="1">
@@ -2660,7 +2660,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="22.5" customHeight="1">
@@ -2668,7 +2668,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="22.5" customHeight="1">
@@ -2676,7 +2676,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="22.5" customHeight="1">
@@ -2684,7 +2684,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="22.5" customHeight="1">
@@ -2700,7 +2700,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="22.5" customHeight="1">
@@ -2708,7 +2708,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="22.5" customHeight="1">
@@ -2716,7 +2716,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="22.5" customHeight="1">
@@ -2724,7 +2724,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="22.5" customHeight="1">
@@ -2732,7 +2732,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="22.5" customHeight="1">
@@ -2740,7 +2740,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="22.5" customHeight="1">
@@ -2748,7 +2748,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="22.5" customHeight="1">
@@ -2756,7 +2756,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="22.5" customHeight="1">
@@ -2764,7 +2764,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="6">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="22.5" customHeight="1">
@@ -2772,7 +2772,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="6">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="22.5" customHeight="1">
@@ -2780,7 +2780,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="6">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="22.5" customHeight="1">
@@ -2788,7 +2788,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="6">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="22.5" customHeight="1">
@@ -2796,7 +2796,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="6">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="22.5" customHeight="1">
@@ -2804,7 +2804,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="6">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="22.5" customHeight="1">
@@ -2812,7 +2812,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="22.5" customHeight="1">
@@ -2820,7 +2820,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="6">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="22.5" customHeight="1">
@@ -2828,7 +2828,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="6">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="22.5" customHeight="1">
@@ -2836,7 +2836,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="22.5" customHeight="1">
@@ -2844,7 +2844,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="6">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="22.5" customHeight="1">
@@ -2852,7 +2852,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="6">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="22.5" customHeight="1">
@@ -2860,7 +2860,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="22.5" customHeight="1">
@@ -2868,7 +2868,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="6">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="22.5" customHeight="1">
@@ -2876,7 +2876,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="22.5" customHeight="1">
@@ -2884,7 +2884,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="6">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="22.5" customHeight="1">
@@ -2892,7 +2892,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="6">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="22.5" customHeight="1">
@@ -2900,7 +2900,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="6">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="22.5" customHeight="1">
@@ -2908,7 +2908,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="6">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="22.5" customHeight="1">
@@ -2916,7 +2916,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="6">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="22.5" customHeight="1">
@@ -2924,7 +2924,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="6">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="22.5" customHeight="1">
@@ -2932,7 +2932,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="6">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="22.5" customHeight="1">
@@ -2940,7 +2940,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="6">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="22.5" customHeight="1">
@@ -2956,7 +2956,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="6">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="22.5" customHeight="1">
@@ -2964,7 +2964,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="6">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="22.5" customHeight="1">
@@ -2972,7 +2972,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="22.5" customHeight="1">
@@ -2980,7 +2980,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="6">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="22.5" customHeight="1">
@@ -2996,7 +2996,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="22.5" customHeight="1">
@@ -3004,7 +3004,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="6">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="22.5" customHeight="1">
@@ -3012,7 +3012,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="6">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="22.5" customHeight="1">
@@ -3020,7 +3020,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="6">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="22.5" customHeight="1">
@@ -3028,7 +3028,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="6">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="22.5" customHeight="1">
@@ -3036,7 +3036,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="22.5" customHeight="1">
@@ -3044,7 +3044,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="22.5" customHeight="1">
@@ -3052,7 +3052,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="22.5" customHeight="1">
@@ -3060,7 +3060,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="22.5" customHeight="1">
@@ -3068,7 +3068,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="22.5" customHeight="1">
@@ -3079,7 +3079,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="22.5" customHeight="1">
+    <row r="141" spans="1:2" ht="36.450000000000003" customHeight="1">
       <c r="A141" s="5" t="s">
         <v>139</v>
       </c>
@@ -3092,15 +3092,15 @@
         <v>140</v>
       </c>
       <c r="B142" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="36.450000000000003" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="22.5" customHeight="1">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B143" s="6">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="22.5" customHeight="1">
@@ -3108,7 +3108,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="22.5" customHeight="1">
@@ -3116,7 +3116,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="22.5" customHeight="1">
@@ -3124,7 +3124,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="22.5" customHeight="1">
@@ -3132,7 +3132,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="22.5" customHeight="1">
@@ -3140,7 +3140,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="22.5" customHeight="1">
@@ -3148,7 +3148,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="22.5" customHeight="1">
@@ -3156,7 +3156,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="22.5" customHeight="1">
@@ -3164,7 +3164,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="22.5" customHeight="1">
@@ -3172,7 +3172,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="22.5" customHeight="1">
@@ -3180,7 +3180,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="6">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="22.5" customHeight="1">
@@ -3188,7 +3188,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="6">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="22.5" customHeight="1">
@@ -3196,7 +3196,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="6">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="22.5" customHeight="1">
@@ -3204,7 +3204,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="6">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="22.5" customHeight="1">
@@ -3212,7 +3212,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="6">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="22.5" customHeight="1">
@@ -3220,7 +3220,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="6">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="22.5" customHeight="1">
@@ -3228,7 +3228,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="6">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="22.5" customHeight="1">
@@ -3236,7 +3236,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="6">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="22.5" customHeight="1">
@@ -3244,7 +3244,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="22.5" customHeight="1">
@@ -3252,7 +3252,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="22.5" customHeight="1">
@@ -3260,7 +3260,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="6">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="22.5" customHeight="1">
@@ -3268,7 +3268,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="6">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="22.5" customHeight="1">
@@ -3276,7 +3276,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="6">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="22.5" customHeight="1">
@@ -3284,7 +3284,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="6">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="22.5" customHeight="1">
@@ -3292,7 +3292,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="22.5" customHeight="1">
@@ -3300,7 +3300,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="22.5" customHeight="1">
@@ -3308,7 +3308,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="6">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="22.5" customHeight="1">
@@ -3316,7 +3316,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="6">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="22.5" customHeight="1">
@@ -3324,7 +3324,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="6">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="22.5" customHeight="1">
@@ -3332,7 +3332,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="6">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="22.5" customHeight="1">
@@ -3340,7 +3340,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="6">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="22.5" customHeight="1">
@@ -3348,7 +3348,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="6">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="22.5" customHeight="1">
@@ -3364,7 +3364,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="6">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="22.5" customHeight="1">
@@ -3372,7 +3372,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="6">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="22.5" customHeight="1">
@@ -3380,7 +3380,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="22.5" customHeight="1">
@@ -3388,7 +3388,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="22.5" customHeight="1">
@@ -3396,7 +3396,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="6">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="22.5" customHeight="1">
@@ -3404,7 +3404,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="6">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="22.5" customHeight="1">
@@ -3412,7 +3412,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="6">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="22.5" customHeight="1">
@@ -3420,7 +3420,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="22.5" customHeight="1">
@@ -3428,7 +3428,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="6">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="22.5" customHeight="1">
@@ -3436,7 +3436,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="22.5" customHeight="1">
@@ -3444,7 +3444,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="22.5" customHeight="1">
@@ -3452,7 +3452,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="6">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="22.5" customHeight="1">
@@ -3460,7 +3460,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="6">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="22.5" customHeight="1">
@@ -3468,7 +3468,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="6">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="22.5" customHeight="1">
@@ -3476,7 +3476,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="6">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="22.5" customHeight="1">
@@ -3484,7 +3484,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="22.5" customHeight="1">
@@ -3492,7 +3492,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="22.5" customHeight="1">
@@ -3500,7 +3500,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="6">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="22.5" customHeight="1">
@@ -3508,7 +3508,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="6">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="22.5" customHeight="1">
@@ -3516,7 +3516,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="6">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="22.5" customHeight="1">
@@ -3524,7 +3524,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="6">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="22.5" customHeight="1">
@@ -3532,7 +3532,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="6">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="22.5" customHeight="1">
@@ -3540,7 +3540,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="6">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="22.5" customHeight="1">
@@ -3548,7 +3548,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="6">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="22.5" customHeight="1">
@@ -3556,7 +3556,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="6">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="22.5" customHeight="1">
@@ -3564,7 +3564,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="6">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="22.5" customHeight="1">
@@ -3572,7 +3572,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="6">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="22.5" customHeight="1">
@@ -3580,7 +3580,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="6">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="22.5" customHeight="1">
@@ -3588,7 +3588,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="22.5" customHeight="1">
@@ -3596,7 +3596,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="22.5" customHeight="1">
@@ -3604,7 +3604,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="6">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="22.5" customHeight="1">
@@ -3612,7 +3612,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="6">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="22.5" customHeight="1">
@@ -3620,7 +3620,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="6">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="22.8" customHeight="1">
@@ -3628,7 +3628,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="14">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="20.7" customHeight="1">
